--- a/backend/src/data/export (2.xlsx
+++ b/backend/src/data/export (2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\souai\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/04bc7efa1818b7b3/Bureau/taxacall/backend/src/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C9F9161-CCA1-41ED-AE38-BE9CB55A748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="8_{6C9F9161-CCA1-41ED-AE38-BE9CB55A748D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{033D0986-4645-4826-A51C-686154A0A876}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8880" xr2:uid="{2AB08173-9E07-4D06-8609-C93FF430CFDA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2AB08173-9E07-4D06-8609-C93FF430CFDA}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="70">
   <si>
     <t>Poste</t>
   </si>
@@ -28,9 +28,6 @@
     <t>Nom</t>
   </si>
   <si>
-    <t>Fonction</t>
-  </si>
-  <si>
     <t>Mail</t>
   </si>
   <si>
@@ -52,12 +49,6 @@
     <t xml:space="preserve">805100    </t>
   </si>
   <si>
-    <t xml:space="preserve">SOUHEIL MASMOUDI                                                                                    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                            </t>
-  </si>
-  <si>
     <t>5</t>
   </si>
   <si>
@@ -67,113 +58,185 @@
     <t xml:space="preserve">805102    </t>
   </si>
   <si>
-    <t xml:space="preserve">LIGNE STANDARD CHEKIB CHAOUCH                                                                       </t>
-  </si>
-  <si>
     <t xml:space="preserve">805104    </t>
   </si>
   <si>
-    <t xml:space="preserve">MOHAMED NEFFATI                                                                                     </t>
-  </si>
-  <si>
     <t xml:space="preserve">805105    </t>
   </si>
   <si>
-    <t xml:space="preserve">AMENI KHAZZAR                                                                                       </t>
-  </si>
-  <si>
     <t>5_05_DP</t>
   </si>
   <si>
     <t xml:space="preserve">805106    </t>
   </si>
   <si>
-    <t xml:space="preserve">HENI ZOUARI                                                                                         </t>
-  </si>
-  <si>
     <t xml:space="preserve">805109    </t>
   </si>
   <si>
-    <t xml:space="preserve">BECHIR JRIDI                                                                                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">805111    </t>
   </si>
   <si>
-    <t xml:space="preserve">HAMZA CHERNI                                                                                        </t>
-  </si>
-  <si>
     <t xml:space="preserve">805115    </t>
   </si>
   <si>
-    <t xml:space="preserve">OUSSAMA BEN DHIAB                                                                                   </t>
-  </si>
-  <si>
     <t xml:space="preserve">805121    </t>
   </si>
   <si>
-    <t xml:space="preserve">SAMEH OUNI                                                                                          </t>
-  </si>
-  <si>
     <t xml:space="preserve">805124    </t>
   </si>
   <si>
-    <t xml:space="preserve">MARWA SASSI                                                                                         </t>
-  </si>
-  <si>
     <t xml:space="preserve">805125    </t>
   </si>
   <si>
-    <t xml:space="preserve">SLIM JABRI                                                                                          </t>
-  </si>
-  <si>
     <t xml:space="preserve">805135    </t>
   </si>
   <si>
-    <t xml:space="preserve">JIHEN DHAOUADI                                                                                      </t>
-  </si>
-  <si>
     <t xml:space="preserve">805137    </t>
   </si>
   <si>
-    <t xml:space="preserve">TAHER JELEILI                                                                                       </t>
-  </si>
-  <si>
     <t xml:space="preserve">805138    </t>
   </si>
   <si>
-    <t xml:space="preserve">RAKIA BEN MOALLEM                                                                                   </t>
-  </si>
-  <si>
     <t xml:space="preserve">805139    </t>
   </si>
   <si>
-    <t xml:space="preserve">NAJOUA HAMMAMI                                                                                      </t>
-  </si>
-  <si>
     <t xml:space="preserve">805141    </t>
   </si>
   <si>
-    <t xml:space="preserve">SAMI SEGHAIER                                                                                       </t>
-  </si>
-  <si>
     <t xml:space="preserve">805142    </t>
   </si>
   <si>
-    <t xml:space="preserve">MARWA FATNASSI                                                                                      </t>
-  </si>
-  <si>
     <t xml:space="preserve">805147    </t>
   </si>
   <si>
-    <t xml:space="preserve">RECEPTION SAV ASTER                                                                                 </t>
+    <t>prenom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOUHEIL                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOHAMED                                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEFFATI </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMENI                                                                          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">KHAZZAR              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HENI                                                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZOUARI  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BECHIR                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAMZA                                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUSSAMA                                                                                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEN DHIAB   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMEH                                                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUNI     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARWA                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> SASSI          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SLIM                                                                                         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JIHEN                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAHER                                                                               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JELEILI         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAKIA                                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAJOUA                                                                                  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMI                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARWA                                                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECEPTION                                                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHEKIB                                                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CHAOUCH                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MASMOUDI                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JRIDI                                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   CHERNI                                                      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  JABRI                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DHAOUADI                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEN MOALLEM                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  HAMMAMI                                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SEGHAIER                                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   FATNASSI                                                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SAV ASTER                                                </t>
+  </si>
+  <si>
+    <t>ameni.khazzarpoulina.com</t>
+  </si>
+  <si>
+    <t>souheil.masmoudi@poulina.com</t>
+  </si>
+  <si>
+    <t>chakib.chaouch@poulina.com</t>
+  </si>
+  <si>
+    <t>mohamed.neffati@poulina.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -181,6 +244,13 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <charset val="1"/>
     </font>
@@ -202,12 +272,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -217,8 +288,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
     <cellStyle name="NiveauLigne_4" xfId="1" builtinId="1" iLevel="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -233,6 +311,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -552,9 +634,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E372C5D1-8D70-4502-9DA6-4C254E909A73}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -577,128 +661,136 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3">
         <v>0</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>68</v>
+      </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3">
         <v>0</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="3">
         <v>0</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="3">
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -707,21 +799,21 @@
         <v>0</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -730,21 +822,21 @@
         <v>0</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -752,22 +844,22 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>12</v>
+      <c r="H8" s="2">
+        <v>17</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -775,22 +867,22 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-      <c r="H9" s="2" t="s">
-        <v>12</v>
+      <c r="H9" s="2">
+        <v>17</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -799,21 +891,21 @@
         <v>0</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -822,21 +914,21 @@
         <v>0</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -845,21 +937,21 @@
         <v>0</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -868,21 +960,21 @@
         <v>0</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -891,21 +983,21 @@
         <v>0</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -913,22 +1005,22 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>12</v>
+      <c r="H15" s="2">
+        <v>6</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -937,21 +1029,21 @@
         <v>0</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -960,21 +1052,21 @@
         <v>0</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -982,22 +1074,22 @@
       <c r="G18" s="3">
         <v>0</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>12</v>
+      <c r="H18" s="2">
+        <v>6</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1006,13 +1098,21 @@
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>13</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C20" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{BC391E76-E68A-4659-BCDB-6E884C75BD3E}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{6D92FACC-2186-429C-A557-12EEE7117404}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{776E1245-D951-429D-A2DF-128EDB4710B4}"/>
+  </hyperlinks>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0" footer="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
